--- a/ms_sql_server/2_task_for_mssl/sql_queries_exel_format.xlsx
+++ b/ms_sql_server/2_task_for_mssl/sql_queries_exel_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hariharan\learning\.net\ms_sql_server\2_task_for_mssl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6765E9EF-78F6-4A64-A251-2E161EF2DA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A05414-70E4-464D-8BB9-87ED3621807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,15 +812,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="35" style="3" customWidth="1"/>
@@ -951,7 +951,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>86</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>45</v>
@@ -1360,7 +1360,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>48</v>
@@ -1384,7 +1384,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>34</v>
       </c>
